--- a/물실2.xlsx
+++ b/물실2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows Library\Documents\oCam\물실\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E60141A-439F-4308-A745-A7DC9756A18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6675"/>
+    <workbookView xWindow="0" yWindow="690" windowWidth="20490" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -17,12 +18,21 @@
   <definedNames>
     <definedName name="차트1">Sheet1!$J$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>저울값</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -127,14 +137,11 @@
     <t>appr</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
-  <si>
-    <t>racef61888@wii999.com</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -813,7 +820,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1291,7 +1297,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1931,7 +1936,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvPr id="4" name="차트 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2211,11 +2222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2702,11 +2713,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
